--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E83932-ECCC-4397-BBE5-A7EA6A57BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,22 +60,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3</t>
+    <t>시끄러워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽어도 싫다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고르고 골라라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,13 +509,42 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,11 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ</t>
+    <t>dc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,17 +530,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3">
         <v>13</v>
       </c>
       <c r="H3">
         <v>14</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>죽어도 싫다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고르고 골라라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,29 +502,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,19 +56,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택지를 고르세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시끄러워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꺼져</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽어도 싫다</t>
+    <t>꽃들의 정원</t>
+  </si>
+  <si>
+    <t>애벌레의 버섯 숲</t>
+  </si>
+  <si>
+    <t>나는 동물계 사람과에 속하는 앨리스 꽃이라고 해</t>
+  </si>
+  <si>
+    <t>나는 꽃이 아니라 사람이야</t>
+  </si>
+  <si>
+    <t>애벌레의 물담배를 주워줄까?</t>
+  </si>
+  <si>
+    <t>주워준다</t>
+  </si>
+  <si>
+    <t>주워주지 않는다</t>
+  </si>
+  <si>
+    <t>음? 실례지만 차가 없는 걸요?</t>
+  </si>
+  <si>
+    <t>오 참 맛있는 차네요(마시는 시늉을 하며)</t>
+  </si>
+  <si>
+    <t>오른쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느쪽으로 가지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디로 먼저 가지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 너는 어떤 계, 분류, 과에 속하는 꽃이니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모자장수가 차를 권하지만 아무것도 없다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,13 +177,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,16 +472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="39.25" customWidth="1"/>
     <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,32 +521,121 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1">
+        <v>122</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>138</v>
+      </c>
+      <c r="H3" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>166</v>
+      </c>
+      <c r="H4" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15</v>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>221</v>
+      </c>
+      <c r="H5" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>273</v>
+      </c>
+      <c r="H6" s="1">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="1">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -581,10 +581,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
+        <v>172</v>
+      </c>
+      <c r="H4" s="1">
         <v>166</v>
-      </c>
-      <c r="H4" s="1">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,41 @@
   </si>
   <si>
     <t xml:space="preserve">모자장수가 차를 권하지만 아무것도 없다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴과 두 손이 있지만 몸이 없는 것은 무엇일까요?</t>
+  </si>
+  <si>
+    <t>시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What has a neck but no head?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제는 YROTSIH이고 내일은 YRETSYM이다 그럼 오늘은 무엇인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,16 +507,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="39.25" customWidth="1"/>
     <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
@@ -633,6 +668,75 @@
         <v>274</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>431</v>
+      </c>
+      <c r="H7" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>395</v>
+      </c>
+      <c r="H8" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>437</v>
+      </c>
+      <c r="H9" s="1">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -59,9 +59,6 @@
     <t>꽃들의 정원</t>
   </si>
   <si>
-    <t>애벌레의 버섯 숲</t>
-  </si>
-  <si>
     <t>나는 동물계 사람과에 속하는 앨리스 꽃이라고 해</t>
   </si>
   <si>
@@ -139,6 +136,10 @@
   </si>
   <si>
     <t>A box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쐐기벌레의 버섯 숲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +511,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,13 +560,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -584,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>138</v>
@@ -607,13 +608,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>172</v>
@@ -630,13 +631,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>221</v>
@@ -653,13 +654,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>273</v>
@@ -676,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G7" s="1">
         <v>431</v>
@@ -699,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>395</v>
@@ -722,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>437</v>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -77,9 +77,6 @@
     <t>음? 실례지만 차가 없는 걸요?</t>
   </si>
   <si>
-    <t>오 참 맛있는 차네요(마시는 시늉을 하며)</t>
-  </si>
-  <si>
     <t>오른쪽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>쐐기벌레의 버섯 숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오.. 음 차가 참 맛있네요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +512,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,13 +561,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -585,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -631,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1">
         <v>221</v>
@@ -654,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>273</v>
@@ -677,13 +678,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G7" s="1">
         <v>431</v>
@@ -700,13 +701,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>395</v>
@@ -723,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="1">
         <v>437</v>

--- a/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Present</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +137,10 @@
   </si>
   <si>
     <t>오.. 음 차가 참 맛있네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yadot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1">
         <v>221</v>
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>395</v>
@@ -727,10 +727,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
       <c r="G9" s="1">
         <v>437</v>
